--- a/Documentation/DevelopmentSchedule.xlsx
+++ b/Documentation/DevelopmentSchedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claudiu\Desktop\Game_Project\GameProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claudiu\Desktop\Game_Project\GameProject\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{A76C3551-A462-4681-8550-5D3B1751958F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD575BA3-3B2C-4CD0-86BE-E722F1449B62}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -548,6 +548,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -595,9 +598,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -621,120 +621,7 @@
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -1124,7 +1011,7 @@
   <dimension ref="B1:AU16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1147,13 +1034,13 @@
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="2:47" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1161,66 +1048,66 @@
         <v>1</v>
       </c>
       <c r="J2" s="15"/>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
       <c r="P2" s="16"/>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="31"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="21" t="s">
+      <c r="V2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="33"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="34"/>
       <c r="Z2" s="18"/>
-      <c r="AA2" s="34" t="s">
+      <c r="AA2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="37"/>
       <c r="AH2" s="19"/>
-      <c r="AI2" s="21" t="s">
+      <c r="AI2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="2:47" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="29" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="20" t="s">
@@ -1247,12 +1134,12 @@
       <c r="AA3" s="10"/>
     </row>
     <row r="4" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1375,7 +1262,7 @@
       </c>
     </row>
     <row r="5" spans="2:47" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="6">
@@ -1391,11 +1278,11 @@
         <v>1</v>
       </c>
       <c r="G5" s="7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:47" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="6">
@@ -1411,12 +1298,12 @@
         <v>1</v>
       </c>
       <c r="G6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="2:47" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="6">
@@ -1432,11 +1319,11 @@
         <v>1.5</v>
       </c>
       <c r="G7" s="7">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="2:47" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="6">
@@ -1456,7 +1343,7 @@
       </c>
     </row>
     <row r="9" spans="2:47" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="6">
@@ -1470,7 +1357,7 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="2:47" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="6">
@@ -1484,7 +1371,7 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="2:47" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="6">
@@ -1498,7 +1385,7 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="2:47" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="6">
@@ -1512,7 +1399,7 @@
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="2:47" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="6">
@@ -1526,7 +1413,7 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="2:47" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="6">
@@ -1540,7 +1427,7 @@
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="2:47" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="8">
@@ -1554,7 +1441,7 @@
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="2:47" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="6">
@@ -1583,38 +1470,38 @@
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="H6 H5:AU5 H7:AU16 J6:AU6">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="3" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="2" priority="12">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:AU17">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:AU4">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
